--- a/medicine/Mort/Cimetière_d'Auvers-sur-Oise/Cimetière_d'Auvers-sur-Oise.xlsx
+++ b/medicine/Mort/Cimetière_d'Auvers-sur-Oise/Cimetière_d'Auvers-sur-Oise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auvers-sur-Oise</t>
+          <t>Cimetière_d'Auvers-sur-Oise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Auvers-sur-Oise se trouve dans le Vexin (Val-d'Oise) à Auvers-sur-Oise, à 30 kilomètres au nord de Paris. Il est fameux pour abriter les tombes de Théo et Vincent van Gogh (qui demeura au village les soixante-dix derniers jours de sa vie)[1], mais pas uniquement car un certain nombre d'artistes y sont aussi inhumés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Auvers-sur-Oise se trouve dans le Vexin (Val-d'Oise) à Auvers-sur-Oise, à 30 kilomètres au nord de Paris. Il est fameux pour abriter les tombes de Théo et Vincent van Gogh (qui demeura au village les soixante-dix derniers jours de sa vie), mais pas uniquement car un certain nombre d'artistes y sont aussi inhumés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auvers-sur-Oise</t>
+          <t>Cimetière_d'Auvers-sur-Oise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière se trouvait à l'origine sur le terre-plein immédiatement au sud de l'église Notre-Dame. Devenu bien trop exigu pour la population d'alors, il fut déplacé au nord du village en 1858 et les tombes anciennes transférées en 1875 ; il forme un quadrilatère[2]. On y accède par un portail de fer forgé sous un grand arc de pierre. Le cimetière se trouve dans les champs à la sortie du village.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière se trouvait à l'origine sur le terre-plein immédiatement au sud de l'église Notre-Dame. Devenu bien trop exigu pour la population d'alors, il fut déplacé au nord du village en 1858 et les tombes anciennes transférées en 1875 ; il forme un quadrilatère. On y accède par un portail de fer forgé sous un grand arc de pierre. Le cimetière se trouve dans les champs à la sortie du village.  
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auvers-sur-Oise</t>
+          <t>Cimetière_d'Auvers-sur-Oise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Boggio (1857-1920), peintre postimpressionniste,
 Léonide Bourges (1838-1910), peintre, élève de Daubigny,
-Madame Chevalier, gouvernante et cuisinière de la famille du docteur Gachet avec un médaillon de bronze signé L. van Ryssel[3],
+Madame Chevalier, gouvernante et cuisinière de la famille du docteur Gachet avec un médaillon de bronze signé L. van Ryssel,
 Guillaume Cornelis van Beverloo, dit Corneille (1922-2010), peintre,
 Otto Freundlich (1878-1943), peintre ; c'est un cénotaphe car il est mort au camp de Sobibor, son épouse, Jeanne Kosnick-Kloss, peintre et sculptrice, repose dans cette sépulture,
 Norbert Gœneutte (1854-1894), peintre (tombe avec obélisque),
@@ -557,8 +573,8 @@
 Éliane Richepin (1910-1999), pianiste,
 Charles Sprague Pearce (1852-1914), peintre américain, élève de Bonnat,
 Théodore van Gogh (1857-1891), marchand d'art, frère de Vincent van Gogh,
-Vincent van Gogh (1853-1890), peintre[4],
-Jean-Baptiste Yollant (1852-1894), architecte, tombe ornée d’un médaillon réalisé par Léon Fagel[2],[3].
+Vincent van Gogh (1853-1890), peintre,
+Jean-Baptiste Yollant (1852-1894), architecte, tombe ornée d’un médaillon réalisé par Léon Fagel,.
 			Monument du Souvenir français
 			Cénotaphe de Freundlich et tombe de Jeanne Kosnick-Kloss.
 			Sépulture d'Henri Mataigne (1863-1946), historien local.
